--- a/results/tables/top_go_over-rep_terms_adj_pvalue_sorted.xlsx
+++ b/results/tables/top_go_over-rep_terms_adj_pvalue_sorted.xlsx
@@ -407,7 +407,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
